--- a/biology/Zoologie/Hierophis_gemonensis/Hierophis_gemonensis.xlsx
+++ b/biology/Zoologie/Hierophis_gemonensis/Hierophis_gemonensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hierophis gemonensis, ou couleuvre des Balkans[1],[2], est une espèce de serpents de la famille des Colubridae[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hierophis gemonensis, ou couleuvre des Balkans est une espèce de serpents de la famille des Colubridae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre :
 en Albanie ;
 en Bosnie-Herzégovine, dans le Sud du pays ;
 sur les côtes de la Croatie et sur quelques îles de l'Adriatique ;
@@ -550,7 +564,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Hierophis gemonensis mesure en général moins de 100 cm mais peut atteindre exceptionnellement 130 cm. Son dos varie entre le brun, le brun-roux, le jaune et le gris et présente de nombreuses taches sombres essentiellement sur le tiers antérieur du corps. Les juvéniles ressemblent aux adultes mais leur coloration est plus contrastée.
 Cette espèce se nourrit surtout de gros insectes et de lézards mais s'attaque également à de petits mammifères ou à des poussins.
@@ -584,9 +600,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son nom d'espèce, composé de gemon[a] et du suffixe latin -ensis, « qui vit dans, qui habite », lui a été donné en référence au lieu de sa découverte, Gemona del Friuli, région où cette espèce est désormais absente[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son nom d'espèce, composé de gemon[a] et du suffixe latin -ensis, « qui vit dans, qui habite », lui a été donné en référence au lieu de sa découverte, Gemona del Friuli, région où cette espèce est désormais absente.
 </t>
         </is>
       </c>
@@ -615,9 +633,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il existe de nombreux synonymes pour cette couleuvre[4] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il existe de nombreux synonymes pour cette couleuvre :
 Natrix gemonensis Laurenti 1768: 76
 Coluber laurenti Bedriaga 1882
 Zamenis gemonensis — Boulenger 1893: 395
@@ -632,7 +652,7 @@
 Haemorrhois gemonensis - Welch
 Hierophis gemonensis — Nagy et al. 2004
 Hierophis gemonensis — Nagy 2010 (pers. comm.)
-Autrefois incluse dans le genre Coluber, cette espèce est passée dans le genre Hierophis après les travaux de Schätti &amp; Utiger en 2001, et Nagy et al. en 2004[5].
+Autrefois incluse dans le genre Coluber, cette espèce est passée dans le genre Hierophis après les travaux de Schätti &amp; Utiger en 2001, et Nagy et al. en 2004.
 </t>
         </is>
       </c>
@@ -661,7 +681,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Laurenti, 1768 : Specimen medicum, exhibens synopsin reptilium emendatam cum experimentis circa venena et antidota reptilium austriacorum Vienna Joan Thomae p. 1-217 (texte intégral).</t>
         </is>
